--- a/IUmo/Files/Template.xlsx
+++ b/IUmo/Files/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echpochmac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenue\OneDrive\Рабочий стол\IJournal\IUmo\IUmo\IUmo\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C694375-51DA-4CAD-83B1-DDAAF707408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8535"/>
+    <workbookView xWindow="2928" yWindow="2412" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группа" sheetId="8" r:id="rId1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
@@ -604,81 +605,81 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
-    <cellStyle name="Обычный_ю41,42 03-04" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный_ю41,42 03-04" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,71 +961,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-    <col min="4" max="4" width="233.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="97.28515625" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" customWidth="1"/>
+    <col min="4" max="4" width="233.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="97.33203125" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="90.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="44"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="44" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
@@ -1032,7 +1033,7 @@
       <c r="E4" s="11"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
@@ -1043,7 +1044,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
@@ -1066,11 +1067,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="33"/>
@@ -1079,18 +1080,18 @@
       <c r="F7" s="38"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="34"/>
       <c r="D8" s="37"/>
       <c r="E8" s="16"/>
       <c r="F8" s="39"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="33"/>
@@ -1099,18 +1100,18 @@
       <c r="F9" s="38"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="34"/>
       <c r="D10" s="37"/>
       <c r="E10" s="16"/>
       <c r="F10" s="39"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="33"/>
@@ -1119,18 +1120,18 @@
       <c r="F11" s="40"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="47"/>
+    <row r="12" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="34"/>
       <c r="D12" s="37"/>
       <c r="E12" s="16"/>
       <c r="F12" s="39"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="33"/>
@@ -1139,18 +1140,18 @@
       <c r="F13" s="40"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="47"/>
+    <row r="14" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="34"/>
       <c r="D14" s="37"/>
       <c r="E14" s="16"/>
       <c r="F14" s="39"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="33"/>
@@ -1159,9 +1160,9 @@
       <c r="F15" s="40"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="47" t="s">
+    <row r="16" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="34"/>
@@ -1170,9 +1171,9 @@
       <c r="F16" s="39"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51" t="s">
+    <row r="17" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="33"/>
@@ -1181,16 +1182,16 @@
       <c r="F17" s="40"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="52"/>
+    <row r="18" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="34"/>
       <c r="D18" s="37"/>
       <c r="E18" s="16"/>
       <c r="F18" s="39"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>3</v>
       </c>
@@ -1213,11 +1214,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="33"/>
@@ -1226,18 +1227,18 @@
       <c r="F20" s="38"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="46"/>
+    <row r="21" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="34"/>
       <c r="D21" s="37"/>
       <c r="E21" s="16"/>
       <c r="F21" s="39"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
+      <c r="B22" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="33"/>
@@ -1246,18 +1247,18 @@
       <c r="F22" s="38"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="45"/>
+    <row r="23" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="34"/>
       <c r="D23" s="37"/>
       <c r="E23" s="16"/>
       <c r="F23" s="39"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="47" t="s">
+    <row r="24" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="33"/>
@@ -1266,18 +1267,18 @@
       <c r="F24" s="40"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="47"/>
+    <row r="25" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="34"/>
       <c r="D25" s="37"/>
       <c r="E25" s="16"/>
       <c r="F25" s="39"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="47" t="s">
+    <row r="26" spans="1:7" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="47"/>
+      <c r="B26" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="33"/>
@@ -1288,18 +1289,18 @@
       <c r="F26" s="40"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="47"/>
+    <row r="27" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="34"/>
       <c r="D27" s="37"/>
       <c r="E27" s="16"/>
       <c r="F27" s="39"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="33"/>
@@ -1308,9 +1309,9 @@
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="47" t="s">
+    <row r="29" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="47"/>
+      <c r="B29" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="34"/>
@@ -1319,9 +1320,9 @@
       <c r="F29" s="39"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="51" t="s">
+    <row r="30" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47"/>
+      <c r="B30" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="33"/>
@@ -1330,16 +1331,16 @@
       <c r="F30" s="40"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="52"/>
+    <row r="31" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="48"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="34"/>
       <c r="D31" s="37"/>
       <c r="E31" s="16"/>
       <c r="F31" s="39"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
         <v>3</v>
       </c>
@@ -1362,11 +1363,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+    <row r="33" spans="1:7" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="33"/>
@@ -1375,18 +1376,18 @@
       <c r="F33" s="38"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="46"/>
+    <row r="34" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="34"/>
       <c r="D34" s="37"/>
       <c r="E34" s="16"/>
       <c r="F34" s="39"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="33"/>
@@ -1395,18 +1396,18 @@
       <c r="F35" s="38"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="45"/>
+    <row r="36" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="47"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="34"/>
       <c r="D36" s="37"/>
       <c r="E36" s="16"/>
       <c r="F36" s="39"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="47" t="s">
+    <row r="37" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="33"/>
@@ -1415,18 +1416,18 @@
       <c r="F37" s="40"/>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="47"/>
+    <row r="38" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="34"/>
       <c r="D38" s="37"/>
       <c r="E38" s="16"/>
       <c r="F38" s="39"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="47" t="s">
+    <row r="39" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="47"/>
+      <c r="B39" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="33"/>
@@ -1435,18 +1436,18 @@
       <c r="F39" s="40"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="47"/>
+    <row r="40" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="47"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="34"/>
       <c r="D40" s="37"/>
       <c r="E40" s="16"/>
       <c r="F40" s="39"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="47" t="s">
+    <row r="41" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="47"/>
+      <c r="B41" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="33"/>
@@ -1455,9 +1456,9 @@
       <c r="F41" s="40"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="47" t="s">
+    <row r="42" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="47"/>
+      <c r="B42" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="34"/>
@@ -1466,9 +1467,9 @@
       <c r="F42" s="39"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="51" t="s">
+    <row r="43" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="33"/>
@@ -1477,16 +1478,16 @@
       <c r="F43" s="40"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="52"/>
+    <row r="44" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="48"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="34"/>
       <c r="D44" s="37"/>
       <c r="E44" s="16"/>
       <c r="F44" s="39"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
         <v>3</v>
       </c>
@@ -1509,119 +1510,119 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="65" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="57"/>
-    </row>
-    <row r="48" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="57"/>
-    </row>
-    <row r="49" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="57"/>
-    </row>
-    <row r="50" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="57"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="57"/>
-    </row>
-    <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="57"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="57"/>
-    </row>
-    <row r="55" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="57"/>
-    </row>
-    <row r="56" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="57"/>
-    </row>
-    <row r="57" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="58"/>
-    </row>
-    <row r="58" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="58"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="58"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="56"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="56"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="56"/>
+    </row>
+    <row r="55" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="56"/>
+    </row>
+    <row r="56" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="47"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="56"/>
+    </row>
+    <row r="57" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="48"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="57"/>
+    </row>
+    <row r="58" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>3</v>
       </c>
@@ -1644,11 +1645,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53" t="s">
+    <row r="59" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="33"/>
@@ -1657,18 +1658,18 @@
       <c r="F59" s="38"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="46"/>
+    <row r="60" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="47"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="34"/>
       <c r="D60" s="37"/>
       <c r="E60" s="16"/>
       <c r="F60" s="39"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="45" t="s">
+    <row r="61" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="47"/>
+      <c r="B61" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="33"/>
@@ -1677,18 +1678,18 @@
       <c r="F61" s="38"/>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="45"/>
+    <row r="62" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="47"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="34"/>
       <c r="D62" s="37"/>
       <c r="E62" s="16"/>
       <c r="F62" s="39"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="47" t="s">
+    <row r="63" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="47"/>
+      <c r="B63" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="33"/>
@@ -1697,18 +1698,18 @@
       <c r="F63" s="40"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="47"/>
+    <row r="64" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="47"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="34"/>
       <c r="D64" s="37"/>
       <c r="E64" s="16"/>
       <c r="F64" s="39"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
-      <c r="B65" s="47" t="s">
+    <row r="65" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="47"/>
+      <c r="B65" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="33"/>
@@ -1717,18 +1718,18 @@
       <c r="F65" s="40"/>
       <c r="G65" s="26"/>
     </row>
-    <row r="66" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="47"/>
+    <row r="66" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="47"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="34"/>
       <c r="D66" s="37"/>
       <c r="E66" s="16"/>
       <c r="F66" s="39"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="47" t="s">
+    <row r="67" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="47"/>
+      <c r="B67" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="33"/>
@@ -1737,9 +1738,9 @@
       <c r="F67" s="40"/>
       <c r="G67" s="26"/>
     </row>
-    <row r="68" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="47" t="s">
+    <row r="68" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="47"/>
+      <c r="B68" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="34"/>
@@ -1748,9 +1749,9 @@
       <c r="F68" s="39"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="51" t="s">
+    <row r="69" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="47"/>
+      <c r="B69" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="33"/>
@@ -1759,16 +1760,16 @@
       <c r="F69" s="40"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="55"/>
-      <c r="B70" s="52"/>
+    <row r="70" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="48"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="34"/>
       <c r="D70" s="37"/>
       <c r="E70" s="16"/>
       <c r="F70" s="39"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
         <v>3</v>
       </c>
@@ -1791,11 +1792,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="53" t="s">
+    <row r="72" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="33"/>
@@ -1804,18 +1805,18 @@
       <c r="F72" s="38"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="46"/>
+    <row r="73" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="47"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="34"/>
       <c r="D73" s="37"/>
       <c r="E73" s="16"/>
       <c r="F73" s="39"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
-      <c r="B74" s="45" t="s">
+    <row r="74" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="47"/>
+      <c r="B74" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="33"/>
@@ -1824,18 +1825,18 @@
       <c r="F74" s="38"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="45"/>
+    <row r="75" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="47"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="34"/>
       <c r="D75" s="37"/>
       <c r="E75" s="16"/>
       <c r="F75" s="39"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="47" t="s">
+    <row r="76" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="47"/>
+      <c r="B76" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="33"/>
@@ -1844,18 +1845,18 @@
       <c r="F76" s="40"/>
       <c r="G76" s="26"/>
     </row>
-    <row r="77" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="47"/>
+    <row r="77" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="47"/>
+      <c r="B77" s="61"/>
       <c r="C77" s="34"/>
       <c r="D77" s="37"/>
       <c r="E77" s="16"/>
       <c r="F77" s="39"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
-      <c r="B78" s="47" t="s">
+    <row r="78" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="47"/>
+      <c r="B78" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="33"/>
@@ -1864,18 +1865,18 @@
       <c r="F78" s="40"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="47"/>
+    <row r="79" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="47"/>
+      <c r="B79" s="61"/>
       <c r="C79" s="34"/>
       <c r="D79" s="37"/>
       <c r="E79" s="16"/>
       <c r="F79" s="39"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
-      <c r="B80" s="47" t="s">
+    <row r="80" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="47"/>
+      <c r="B80" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="33"/>
@@ -1884,9 +1885,9 @@
       <c r="F80" s="40"/>
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="1:8" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
-      <c r="B81" s="47" t="s">
+    <row r="81" spans="1:8" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="47"/>
+      <c r="B81" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="34"/>
@@ -1895,9 +1896,9 @@
       <c r="F81" s="39"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="54"/>
-      <c r="B82" s="51" t="s">
+    <row r="82" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="47"/>
+      <c r="B82" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="33"/>
@@ -1906,16 +1907,16 @@
       <c r="F82" s="40"/>
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="52"/>
+    <row r="83" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="48"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="34"/>
       <c r="D83" s="37"/>
       <c r="E83" s="16"/>
       <c r="F83" s="39"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
@@ -1924,7 +1925,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -1934,7 +1935,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
     </row>
-    <row r="86" spans="1:8" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C86" s="43" t="s">
         <v>16</v>
       </c>
@@ -1943,87 +1944,87 @@
       </c>
       <c r="E86" s="41"/>
     </row>
-    <row r="87" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.8">
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="12"/>
     </row>
-    <row r="97" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="97" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="98" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="99" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="12"/>
     </row>
-    <row r="100" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="100" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="12"/>
     </row>
-    <row r="101" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="101" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="12"/>
     </row>
-    <row r="102" spans="3:5" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="102" spans="3:5" ht="46.2" x14ac:dyDescent="0.8">
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
     </row>
-    <row r="103" spans="3:5" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="C103" s="25" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2033,7 @@
       </c>
       <c r="E103" s="24"/>
     </row>
-    <row r="104" spans="3:5" ht="91.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" ht="92.4" x14ac:dyDescent="0.3">
       <c r="C104" s="25" t="s">
         <v>33</v>
       </c>
@@ -2043,11 +2044,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B46:B57"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="F46:F57"/>
     <mergeCell ref="G46:G57"/>
     <mergeCell ref="E46:E57"/>
@@ -2064,33 +2086,12 @@
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D57"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1.453125" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
